--- a/datebase/contas.xlsx
+++ b/datebase/contas.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Enviados</t>
   </si>
   <si>
-    <t xml:space="preserve">emilson.sn1</t>
+    <t xml:space="preserve">emilson.sn</t>
   </si>
   <si>
     <t xml:space="preserve">emilson.sn2</t>
@@ -58,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,10 +246,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>

--- a/datebase/contas.xlsx
+++ b/datebase/contas.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Contas</t>
   </si>
@@ -31,19 +31,13 @@
     <t xml:space="preserve">Enviados</t>
   </si>
   <si>
+    <t xml:space="preserve">emilsonsn2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">emilson.sn</t>
   </si>
   <si>
-    <t xml:space="preserve">emilson.sn2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emilson.sn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emilson.sn4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emilson.sn5</t>
+    <t xml:space="preserve">_cadeapalheta</t>
   </si>
 </sst>
 </file>
@@ -53,12 +47,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -71,45 +71,19 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3465A4"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -158,12 +132,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -175,66 +149,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF3465A4"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -246,16 +160,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -279,7 +192,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,32 +200,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>20</v>
-      </c>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/datebase/contas.xlsx
+++ b/datebase/contas.xlsx
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
